--- a/table-builder/builder/table-builder-test/protocol-id-allocation.xlsx
+++ b/table-builder/builder/table-builder-test/protocol-id-allocation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="table attribute" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,13 +91,17 @@
   </si>
   <si>
     <t>column description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,7 +172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,12 +471,15 @@
     <col min="3" max="3" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -488,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/table-builder/builder/table-builder-test/protocol-id-allocation.xlsx
+++ b/table-builder/builder/table-builder-test/protocol-id-allocation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table attribute" sheetId="1" r:id="rId1"/>
@@ -50,18 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>child table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +83,18 @@
   </si>
   <si>
     <t>table description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -473,15 +473,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,13 +508,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -538,15 +538,15 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
